--- a/РАБОЧИЙ СТОЛ/22,05,25 ПОКОМ КИ филиалы/Мелитополь/дв 21,05,25 млрсч пок ки от Сарана (согласовал Скорохватов).xlsx
+++ b/РАБОЧИЙ СТОЛ/22,05,25 ПОКОМ КИ филиалы/Мелитополь/дв 21,05,25 млрсч пок ки от Сарана (согласовал Скорохватов).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\21,05,25 ПОКОМ КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\Создание расчетов\ПОКОМ_КИ_UK_Sch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F468531-6F0F-4DDB-AF69-975AFF3BBF15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F38D16F-0257-48B3-88C4-64CC59F7456A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,20 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AI$101</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="154">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -508,6 +500,9 @@
   <si>
     <t>24,05,(2)</t>
   </si>
+  <si>
+    <t>16,05,</t>
+  </si>
 </sst>
 </file>
 
@@ -643,7 +638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -654,7 +649,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -979,7 +973,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U7" sqref="U7"/>
+      <selection pane="bottomRight" activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,7 +1246,7 @@
         <v>23</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>24</v>
+        <v>153</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1674,7 +1668,7 @@
         <v>38</v>
       </c>
       <c r="AI7" s="1">
-        <f t="shared" ref="AI7:AJ70" si="11">ROUND(G7*R7,0)</f>
+        <f t="shared" ref="AI7:AI70" si="11">ROUND(G7*R7,0)</f>
         <v>49</v>
       </c>
       <c r="AJ7" s="1">
@@ -2077,41 +2071,41 @@
       <c r="AZ10" s="1"/>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16">
-        <v>0</v>
-      </c>
-      <c r="H11" s="15">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
         <v>180</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15">
+      <c r="J11" s="14"/>
+      <c r="K11" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15">
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P11" s="17"/>
+      <c r="P11" s="16"/>
       <c r="Q11" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -2121,47 +2115,47 @@
         <v>0</v>
       </c>
       <c r="S11" s="5"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="15"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="14"/>
       <c r="V11" s="1" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W11" s="15" t="e">
+      <c r="W11" s="14" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X11" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="15" t="s">
+      <c r="X11" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="14" t="s">
         <v>46</v>
       </c>
       <c r="AI11" s="1">
@@ -2438,41 +2432,41 @@
       <c r="AZ13" s="1"/>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16">
-        <v>0</v>
-      </c>
-      <c r="H14" s="15">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15">
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
         <v>50</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15">
+      <c r="J14" s="14"/>
+      <c r="K14" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15">
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P14" s="17"/>
+      <c r="P14" s="16"/>
       <c r="Q14" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -2482,47 +2476,47 @@
         <v>0</v>
       </c>
       <c r="S14" s="5"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="15"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="14"/>
       <c r="V14" s="1" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W14" s="15" t="e">
+      <c r="W14" s="14" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X14" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="15" t="s">
+      <c r="X14" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="14" t="s">
         <v>46</v>
       </c>
       <c r="AI14" s="1">
@@ -2732,10 +2726,10 @@
       <c r="S16" s="5">
         <v>100</v>
       </c>
-      <c r="T16" s="23">
+      <c r="T16" s="22">
         <v>100</v>
       </c>
-      <c r="U16" s="24" t="s">
+      <c r="U16" s="23" t="s">
         <v>148</v>
       </c>
       <c r="V16" s="1">
@@ -2985,7 +2979,7 @@
         <f t="shared" si="14"/>
         <v>40.598399999999941</v>
       </c>
-      <c r="Q18" s="25">
+      <c r="Q18" s="24">
         <f>P18+O18</f>
         <v>64.82039999999995</v>
       </c>
@@ -2993,7 +2987,7 @@
         <f t="shared" si="8"/>
         <v>64.82039999999995</v>
       </c>
-      <c r="S18" s="25"/>
+      <c r="S18" s="24"/>
       <c r="T18" s="5"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1">
@@ -3109,7 +3103,7 @@
         <f t="shared" si="14"/>
         <v>398.58800000000014</v>
       </c>
-      <c r="Q19" s="25">
+      <c r="Q19" s="24">
         <f>P19+O19</f>
         <v>466.63540000000012</v>
       </c>
@@ -3117,7 +3111,7 @@
         <f t="shared" si="8"/>
         <v>226.63540000000012</v>
       </c>
-      <c r="S19" s="25">
+      <c r="S19" s="24">
         <v>240</v>
       </c>
       <c r="T19" s="5"/>
@@ -3187,41 +3181,41 @@
       <c r="AZ19" s="1"/>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16">
-        <v>0</v>
-      </c>
-      <c r="H20" s="15">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15">
+        <v>0</v>
+      </c>
+      <c r="H20" s="14">
         <v>60</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15">
+      <c r="J20" s="14"/>
+      <c r="K20" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L20" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15">
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P20" s="17"/>
+      <c r="P20" s="16"/>
       <c r="Q20" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -3231,47 +3225,47 @@
         <v>0</v>
       </c>
       <c r="S20" s="5"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="15"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="14"/>
       <c r="V20" s="1" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W20" s="15" t="e">
+      <c r="W20" s="14" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X20" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="15" t="s">
+      <c r="X20" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="14" t="s">
         <v>46</v>
       </c>
       <c r="AI20" s="1">
@@ -3401,7 +3395,7 @@
       <c r="AG21" s="1">
         <v>62.2316</v>
       </c>
-      <c r="AH21" s="20" t="s">
+      <c r="AH21" s="19" t="s">
         <v>54</v>
       </c>
       <c r="AI21" s="1">
@@ -3480,7 +3474,7 @@
         <f t="shared" si="15"/>
         <v>73.807999999999979</v>
       </c>
-      <c r="Q22" s="25">
+      <c r="Q22" s="24">
         <f>P22+O22</f>
         <v>91.719599999999986</v>
       </c>
@@ -3488,7 +3482,7 @@
         <f t="shared" si="8"/>
         <v>91.719599999999986</v>
       </c>
-      <c r="S22" s="25"/>
+      <c r="S22" s="24"/>
       <c r="T22" s="5"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1">
@@ -3617,10 +3611,10 @@
       <c r="S23" s="5">
         <v>100</v>
       </c>
-      <c r="T23" s="23">
+      <c r="T23" s="22">
         <v>150</v>
       </c>
-      <c r="U23" s="24" t="s">
+      <c r="U23" s="23" t="s">
         <v>148</v>
       </c>
       <c r="V23" s="1">
@@ -3818,47 +3812,47 @@
       <c r="AZ24" s="1"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11">
+      <c r="C25" s="10"/>
+      <c r="D25" s="10">
         <v>33.414000000000001</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <v>33.414000000000001</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12">
-        <v>0</v>
-      </c>
-      <c r="H25" s="11" t="e">
+      <c r="F25" s="10"/>
+      <c r="G25" s="11">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11">
+      <c r="J25" s="10"/>
+      <c r="K25" s="10">
         <f t="shared" si="3"/>
         <v>33.414000000000001</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L25" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M25" s="11">
+      <c r="M25" s="10">
         <v>33.414000000000001</v>
       </c>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11">
+      <c r="N25" s="10"/>
+      <c r="O25" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P25" s="13"/>
+      <c r="P25" s="12"/>
       <c r="Q25" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -3868,47 +3862,47 @@
         <v>0</v>
       </c>
       <c r="S25" s="5"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="11"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="10"/>
       <c r="V25" s="1" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W25" s="11" t="e">
+      <c r="W25" s="10" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X25" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="11"/>
+      <c r="X25" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="10"/>
       <c r="AI25" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -4316,41 +4310,41 @@
       <c r="AZ28" s="1"/>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="16">
-        <v>0</v>
-      </c>
-      <c r="H29" s="15">
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="15">
+        <v>0</v>
+      </c>
+      <c r="H29" s="14">
         <v>45</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="I29" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15">
+      <c r="J29" s="14"/>
+      <c r="K29" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L29" s="15">
+      <c r="L29" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15">
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P29" s="17"/>
+      <c r="P29" s="16"/>
       <c r="Q29" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -4360,47 +4354,47 @@
         <v>0</v>
       </c>
       <c r="S29" s="5"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="15"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="14"/>
       <c r="V29" s="1" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W29" s="15" t="e">
+      <c r="W29" s="14" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X29" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="15" t="s">
+      <c r="X29" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="14" t="s">
         <v>46</v>
       </c>
       <c r="AI29" s="1">
@@ -4729,7 +4723,7 @@
         <f t="shared" si="17"/>
         <v>39.430999999999997</v>
       </c>
-      <c r="Q32" s="25">
+      <c r="Q32" s="24">
         <f>P32+O32</f>
         <v>49.340399999999995</v>
       </c>
@@ -4737,7 +4731,7 @@
         <f t="shared" si="8"/>
         <v>49.340399999999995</v>
       </c>
-      <c r="S32" s="25"/>
+      <c r="S32" s="24"/>
       <c r="T32" s="5"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1">
@@ -5317,47 +5311,47 @@
       <c r="AZ36" s="1"/>
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11">
+      <c r="C37" s="10"/>
+      <c r="D37" s="10">
         <v>24</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="10">
         <v>24</v>
       </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12">
-        <v>0</v>
-      </c>
-      <c r="H37" s="11" t="e">
+      <c r="F37" s="10"/>
+      <c r="G37" s="11">
+        <v>0</v>
+      </c>
+      <c r="H37" s="10" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I37" s="11" t="s">
+      <c r="I37" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11">
+      <c r="J37" s="10"/>
+      <c r="K37" s="10">
         <f t="shared" ref="K37:K68" si="18">E37-J37</f>
         <v>24</v>
       </c>
-      <c r="L37" s="11">
+      <c r="L37" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M37" s="11">
+      <c r="M37" s="10">
         <v>24</v>
       </c>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11">
+      <c r="N37" s="10"/>
+      <c r="O37" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P37" s="13"/>
+      <c r="P37" s="12"/>
       <c r="Q37" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -5367,47 +5361,47 @@
         <v>0</v>
       </c>
       <c r="S37" s="5"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="11"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="10"/>
       <c r="V37" s="1" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W37" s="11" t="e">
+      <c r="W37" s="10" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X37" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="11"/>
+      <c r="X37" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="10"/>
       <c r="AI37" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -5434,47 +5428,47 @@
       <c r="AZ37" s="1"/>
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15">
+      <c r="C38" s="14"/>
+      <c r="D38" s="14">
         <v>133.16800000000001</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="14">
         <v>133.16800000000001</v>
       </c>
-      <c r="F38" s="15"/>
-      <c r="G38" s="16">
-        <v>0</v>
-      </c>
-      <c r="H38" s="15">
+      <c r="F38" s="14"/>
+      <c r="G38" s="15">
+        <v>0</v>
+      </c>
+      <c r="H38" s="14">
         <v>45</v>
       </c>
-      <c r="I38" s="15" t="s">
+      <c r="I38" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15">
+      <c r="J38" s="14"/>
+      <c r="K38" s="14">
         <f t="shared" si="18"/>
         <v>133.16800000000001</v>
       </c>
-      <c r="L38" s="15">
+      <c r="L38" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M38" s="15">
+      <c r="M38" s="14">
         <v>133.16800000000001</v>
       </c>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15">
+      <c r="N38" s="14"/>
+      <c r="O38" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P38" s="17"/>
+      <c r="P38" s="16"/>
       <c r="Q38" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -5484,47 +5478,47 @@
         <v>0</v>
       </c>
       <c r="S38" s="5"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="15"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="14"/>
       <c r="V38" s="1" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W38" s="15" t="e">
+      <c r="W38" s="14" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X38" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="15" t="s">
+      <c r="X38" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="14" t="s">
         <v>46</v>
       </c>
       <c r="AI38" s="1">
@@ -5553,41 +5547,41 @@
       <c r="AZ38" s="1"/>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="16">
-        <v>0</v>
-      </c>
-      <c r="H39" s="15">
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="15">
+        <v>0</v>
+      </c>
+      <c r="H39" s="14">
         <v>45</v>
       </c>
-      <c r="I39" s="15" t="s">
+      <c r="I39" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15">
+      <c r="J39" s="14"/>
+      <c r="K39" s="14">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="L39" s="15">
+      <c r="L39" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15">
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P39" s="17"/>
+      <c r="P39" s="16"/>
       <c r="Q39" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -5597,47 +5591,47 @@
         <v>0</v>
       </c>
       <c r="S39" s="5"/>
-      <c r="T39" s="17"/>
-      <c r="U39" s="15"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="14"/>
       <c r="V39" s="1" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W39" s="15" t="e">
+      <c r="W39" s="14" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X39" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="15" t="s">
+      <c r="X39" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="14" t="s">
         <v>46</v>
       </c>
       <c r="AI39" s="1">
@@ -5765,7 +5759,7 @@
       <c r="AG40" s="1">
         <v>35</v>
       </c>
-      <c r="AH40" s="20" t="s">
+      <c r="AH40" s="19" t="s">
         <v>73</v>
       </c>
       <c r="AI40" s="1">
@@ -6172,47 +6166,47 @@
       <c r="AZ43" s="1"/>
     </row>
     <row r="44" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11">
+      <c r="C44" s="10"/>
+      <c r="D44" s="10">
         <v>64.105000000000004</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="10">
         <v>64.105000000000004</v>
       </c>
-      <c r="F44" s="11"/>
-      <c r="G44" s="12">
-        <v>0</v>
-      </c>
-      <c r="H44" s="11" t="e">
+      <c r="F44" s="10"/>
+      <c r="G44" s="11">
+        <v>0</v>
+      </c>
+      <c r="H44" s="10" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I44" s="11" t="s">
+      <c r="I44" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11">
+      <c r="J44" s="10"/>
+      <c r="K44" s="10">
         <f t="shared" si="18"/>
         <v>64.105000000000004</v>
       </c>
-      <c r="L44" s="11">
+      <c r="L44" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M44" s="11">
+      <c r="M44" s="10">
         <v>64.105000000000004</v>
       </c>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11">
+      <c r="N44" s="10"/>
+      <c r="O44" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P44" s="13"/>
+      <c r="P44" s="12"/>
       <c r="Q44" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -6222,47 +6216,47 @@
         <v>0</v>
       </c>
       <c r="S44" s="5"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="11"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="10"/>
       <c r="V44" s="1" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W44" s="11" t="e">
+      <c r="W44" s="10" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X44" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH44" s="11"/>
+      <c r="X44" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="10"/>
       <c r="AI44" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -6514,7 +6508,7 @@
       <c r="AG46" s="1">
         <v>20.2</v>
       </c>
-      <c r="AH46" s="20" t="s">
+      <c r="AH46" s="19" t="s">
         <v>54</v>
       </c>
       <c r="AI46" s="1">
@@ -6761,7 +6755,7 @@
       <c r="AG48" s="1">
         <v>4.5888</v>
       </c>
-      <c r="AH48" s="21" t="s">
+      <c r="AH48" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AI48" s="1">
@@ -7037,45 +7031,45 @@
       <c r="AZ50" s="1"/>
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="10">
         <v>-3</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="10">
         <v>3</v>
       </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="12">
-        <v>0</v>
-      </c>
-      <c r="H51" s="11" t="e">
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="11">
+        <v>0</v>
+      </c>
+      <c r="H51" s="10" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I51" s="11" t="s">
+      <c r="I51" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11">
+      <c r="J51" s="10"/>
+      <c r="K51" s="10">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="L51" s="11">
+      <c r="L51" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11">
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P51" s="13"/>
+      <c r="P51" s="12"/>
       <c r="Q51" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7085,47 +7079,47 @@
         <v>0</v>
       </c>
       <c r="S51" s="5"/>
-      <c r="T51" s="13"/>
-      <c r="U51" s="11"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="10"/>
       <c r="V51" s="1" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W51" s="11" t="e">
+      <c r="W51" s="10" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X51" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="11">
+      <c r="X51" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="10">
         <v>0.6</v>
       </c>
-      <c r="AA51" s="11">
+      <c r="AA51" s="10">
         <v>0.6</v>
       </c>
-      <c r="AB51" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE51" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF51" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG51" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH51" s="11"/>
+      <c r="AB51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="10"/>
       <c r="AI51" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -7278,7 +7272,7 @@
       <c r="AZ52" s="1"/>
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="17" t="s">
         <v>92</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -7307,12 +7301,12 @@
         <v>0</v>
       </c>
       <c r="M53" s="1"/>
-      <c r="N53" s="18"/>
+      <c r="N53" s="17"/>
       <c r="O53" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P53" s="19">
+      <c r="P53" s="18">
         <v>4</v>
       </c>
       <c r="Q53" s="5">
@@ -7364,7 +7358,7 @@
       <c r="AG53" s="1">
         <v>0</v>
       </c>
-      <c r="AH53" s="18" t="s">
+      <c r="AH53" s="17" t="s">
         <v>93</v>
       </c>
       <c r="AI53" s="1">
@@ -7647,41 +7641,41 @@
       <c r="AZ55" s="1"/>
     </row>
     <row r="56" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="16">
-        <v>0</v>
-      </c>
-      <c r="H56" s="15">
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="15">
+        <v>0</v>
+      </c>
+      <c r="H56" s="14">
         <v>50</v>
       </c>
-      <c r="I56" s="15" t="s">
+      <c r="I56" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15">
+      <c r="J56" s="14"/>
+      <c r="K56" s="14">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="L56" s="15">
+      <c r="L56" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15">
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P56" s="17"/>
+      <c r="P56" s="16"/>
       <c r="Q56" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7691,47 +7685,47 @@
         <v>0</v>
       </c>
       <c r="S56" s="5"/>
-      <c r="T56" s="17"/>
-      <c r="U56" s="15"/>
+      <c r="T56" s="16"/>
+      <c r="U56" s="14"/>
       <c r="V56" s="1" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W56" s="15" t="e">
+      <c r="W56" s="14" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X56" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y56" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA56" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB56" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC56" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD56" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE56" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF56" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG56" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH56" s="15" t="s">
+      <c r="X56" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="14" t="s">
         <v>46</v>
       </c>
       <c r="AI56" s="1">
@@ -7810,7 +7804,7 @@
         <f t="shared" ref="P57" si="22">10*O57-N57-F57</f>
         <v>80.832000000000008</v>
       </c>
-      <c r="Q57" s="25">
+      <c r="Q57" s="24">
         <f>P57+O57</f>
         <v>100.31280000000001</v>
       </c>
@@ -7818,7 +7812,7 @@
         <f t="shared" si="8"/>
         <v>100.31280000000001</v>
       </c>
-      <c r="S57" s="25"/>
+      <c r="S57" s="24"/>
       <c r="T57" s="5"/>
       <c r="U57" s="1"/>
       <c r="V57" s="1">
@@ -8010,41 +8004,41 @@
       <c r="AZ58" s="1"/>
     </row>
     <row r="59" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="16">
-        <v>0</v>
-      </c>
-      <c r="H59" s="15">
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="15">
+        <v>0</v>
+      </c>
+      <c r="H59" s="14">
         <v>50</v>
       </c>
-      <c r="I59" s="15" t="s">
+      <c r="I59" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15">
+      <c r="J59" s="14"/>
+      <c r="K59" s="14">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="L59" s="15">
+      <c r="L59" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15">
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P59" s="17"/>
+      <c r="P59" s="16"/>
       <c r="Q59" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -8054,47 +8048,47 @@
         <v>0</v>
       </c>
       <c r="S59" s="5"/>
-      <c r="T59" s="17"/>
-      <c r="U59" s="15"/>
+      <c r="T59" s="16"/>
+      <c r="U59" s="14"/>
       <c r="V59" s="1" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W59" s="15" t="e">
+      <c r="W59" s="14" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X59" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC59" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD59" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE59" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF59" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG59" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH59" s="15" t="s">
+      <c r="X59" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG59" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="14" t="s">
         <v>46</v>
       </c>
       <c r="AI59" s="1">
@@ -8123,47 +8117,47 @@
       <c r="AZ59" s="1"/>
     </row>
     <row r="60" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11">
+      <c r="C60" s="10"/>
+      <c r="D60" s="10">
         <v>56.164999999999999</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E60" s="10">
         <v>56.164999999999999</v>
       </c>
-      <c r="F60" s="11"/>
-      <c r="G60" s="12">
-        <v>0</v>
-      </c>
-      <c r="H60" s="11" t="e">
+      <c r="F60" s="10"/>
+      <c r="G60" s="11">
+        <v>0</v>
+      </c>
+      <c r="H60" s="10" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I60" s="11" t="s">
+      <c r="I60" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11">
+      <c r="J60" s="10"/>
+      <c r="K60" s="10">
         <f t="shared" si="18"/>
         <v>56.164999999999999</v>
       </c>
-      <c r="L60" s="11">
+      <c r="L60" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M60" s="11">
+      <c r="M60" s="10">
         <v>56.164999999999999</v>
       </c>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11">
+      <c r="N60" s="10"/>
+      <c r="O60" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P60" s="13"/>
+      <c r="P60" s="12"/>
       <c r="Q60" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -8173,47 +8167,47 @@
         <v>0</v>
       </c>
       <c r="S60" s="5"/>
-      <c r="T60" s="13"/>
-      <c r="U60" s="11"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="10"/>
       <c r="V60" s="1" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W60" s="11" t="e">
+      <c r="W60" s="10" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X60" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y60" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA60" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB60" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC60" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD60" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE60" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF60" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG60" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH60" s="11"/>
+      <c r="X60" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG60" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH60" s="10"/>
       <c r="AI60" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -8752,47 +8746,47 @@
       <c r="AZ64" s="1"/>
     </row>
     <row r="65" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11">
+      <c r="C65" s="10"/>
+      <c r="D65" s="10">
         <v>87.802000000000007</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E65" s="10">
         <v>87.802000000000007</v>
       </c>
-      <c r="F65" s="11"/>
-      <c r="G65" s="12">
-        <v>0</v>
-      </c>
-      <c r="H65" s="11" t="e">
+      <c r="F65" s="10"/>
+      <c r="G65" s="11">
+        <v>0</v>
+      </c>
+      <c r="H65" s="10" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I65" s="11" t="s">
+      <c r="I65" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11">
+      <c r="J65" s="10"/>
+      <c r="K65" s="10">
         <f t="shared" si="18"/>
         <v>87.802000000000007</v>
       </c>
-      <c r="L65" s="11">
+      <c r="L65" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M65" s="11">
+      <c r="M65" s="10">
         <v>87.802000000000007</v>
       </c>
-      <c r="N65" s="11"/>
-      <c r="O65" s="11">
+      <c r="N65" s="10"/>
+      <c r="O65" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P65" s="13"/>
+      <c r="P65" s="12"/>
       <c r="Q65" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -8802,47 +8796,47 @@
         <v>0</v>
       </c>
       <c r="S65" s="5"/>
-      <c r="T65" s="13"/>
-      <c r="U65" s="11"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="10"/>
       <c r="V65" s="1" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W65" s="11" t="e">
+      <c r="W65" s="10" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X65" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y65" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA65" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB65" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC65" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD65" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE65" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF65" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG65" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH65" s="11"/>
+      <c r="X65" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH65" s="10"/>
       <c r="AI65" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -8869,47 +8863,47 @@
       <c r="AZ65" s="1"/>
     </row>
     <row r="66" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15">
+      <c r="C66" s="14"/>
+      <c r="D66" s="14">
         <v>53.915999999999997</v>
       </c>
-      <c r="E66" s="15">
+      <c r="E66" s="14">
         <v>53.915999999999997</v>
       </c>
-      <c r="F66" s="15"/>
-      <c r="G66" s="16">
-        <v>0</v>
-      </c>
-      <c r="H66" s="15">
+      <c r="F66" s="14"/>
+      <c r="G66" s="15">
+        <v>0</v>
+      </c>
+      <c r="H66" s="14">
         <v>40</v>
       </c>
-      <c r="I66" s="15" t="s">
+      <c r="I66" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15">
+      <c r="J66" s="14"/>
+      <c r="K66" s="14">
         <f t="shared" si="18"/>
         <v>53.915999999999997</v>
       </c>
-      <c r="L66" s="15">
+      <c r="L66" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M66" s="15">
+      <c r="M66" s="14">
         <v>53.915999999999997</v>
       </c>
-      <c r="N66" s="15"/>
-      <c r="O66" s="15">
+      <c r="N66" s="14"/>
+      <c r="O66" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P66" s="17"/>
+      <c r="P66" s="16"/>
       <c r="Q66" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -8919,47 +8913,47 @@
         <v>0</v>
       </c>
       <c r="S66" s="5"/>
-      <c r="T66" s="17"/>
-      <c r="U66" s="15"/>
+      <c r="T66" s="16"/>
+      <c r="U66" s="14"/>
       <c r="V66" s="1" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W66" s="15" t="e">
+      <c r="W66" s="14" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X66" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y66" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z66" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA66" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB66" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC66" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD66" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE66" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF66" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG66" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH66" s="15" t="s">
+      <c r="X66" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG66" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH66" s="14" t="s">
         <v>46</v>
       </c>
       <c r="AI66" s="1">
@@ -9112,41 +9106,41 @@
       <c r="AZ67" s="1"/>
     </row>
     <row r="68" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="16">
-        <v>0</v>
-      </c>
-      <c r="H68" s="15">
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="15">
+        <v>0</v>
+      </c>
+      <c r="H68" s="14">
         <v>60</v>
       </c>
-      <c r="I68" s="15" t="s">
+      <c r="I68" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15">
+      <c r="J68" s="14"/>
+      <c r="K68" s="14">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="L68" s="15">
+      <c r="L68" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M68" s="15"/>
-      <c r="N68" s="15"/>
-      <c r="O68" s="15">
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P68" s="17"/>
+      <c r="P68" s="16"/>
       <c r="Q68" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -9156,47 +9150,47 @@
         <v>0</v>
       </c>
       <c r="S68" s="5"/>
-      <c r="T68" s="17"/>
-      <c r="U68" s="15"/>
+      <c r="T68" s="16"/>
+      <c r="U68" s="14"/>
       <c r="V68" s="1" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W68" s="15" t="e">
+      <c r="W68" s="14" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X68" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y68" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA68" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB68" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC68" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD68" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE68" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF68" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG68" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH68" s="15" t="s">
+      <c r="X68" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH68" s="14" t="s">
         <v>46</v>
       </c>
       <c r="AI68" s="1">
@@ -9225,41 +9219,41 @@
       <c r="AZ68" s="1"/>
     </row>
     <row r="69" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="16">
-        <v>0</v>
-      </c>
-      <c r="H69" s="15">
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="15">
+        <v>0</v>
+      </c>
+      <c r="H69" s="14">
         <v>50</v>
       </c>
-      <c r="I69" s="15" t="s">
+      <c r="I69" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15">
+      <c r="J69" s="14"/>
+      <c r="K69" s="14">
         <f t="shared" ref="K69:K98" si="24">E69-J69</f>
         <v>0</v>
       </c>
-      <c r="L69" s="15">
+      <c r="L69" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="15">
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P69" s="17"/>
+      <c r="P69" s="16"/>
       <c r="Q69" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -9269,47 +9263,47 @@
         <v>0</v>
       </c>
       <c r="S69" s="5"/>
-      <c r="T69" s="17"/>
-      <c r="U69" s="15"/>
+      <c r="T69" s="16"/>
+      <c r="U69" s="14"/>
       <c r="V69" s="1" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W69" s="15" t="e">
+      <c r="W69" s="14" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X69" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y69" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA69" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB69" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC69" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD69" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE69" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF69" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG69" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH69" s="15" t="s">
+      <c r="X69" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH69" s="14" t="s">
         <v>46</v>
       </c>
       <c r="AI69" s="1">
@@ -9338,41 +9332,41 @@
       <c r="AZ69" s="1"/>
     </row>
     <row r="70" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="16">
-        <v>0</v>
-      </c>
-      <c r="H70" s="15">
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="15">
+        <v>0</v>
+      </c>
+      <c r="H70" s="14">
         <v>50</v>
       </c>
-      <c r="I70" s="15" t="s">
+      <c r="I70" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15">
+      <c r="J70" s="14"/>
+      <c r="K70" s="14">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="L70" s="15">
+      <c r="L70" s="14">
         <f t="shared" ref="L70:L101" si="25">E70-M70</f>
         <v>0</v>
       </c>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15">
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="14">
         <f t="shared" ref="O70:O101" si="26">L70/5</f>
         <v>0</v>
       </c>
-      <c r="P70" s="17"/>
+      <c r="P70" s="16"/>
       <c r="Q70" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -9382,47 +9376,47 @@
         <v>0</v>
       </c>
       <c r="S70" s="5"/>
-      <c r="T70" s="17"/>
-      <c r="U70" s="15"/>
+      <c r="T70" s="16"/>
+      <c r="U70" s="14"/>
       <c r="V70" s="1" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W70" s="15" t="e">
+      <c r="W70" s="14" t="e">
         <f t="shared" ref="W70:W101" si="27">(F70+N70)/O70</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X70" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA70" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB70" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC70" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD70" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE70" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF70" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG70" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH70" s="15" t="s">
+      <c r="X70" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG70" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH70" s="14" t="s">
         <v>46</v>
       </c>
       <c r="AI70" s="1">
@@ -9451,41 +9445,41 @@
       <c r="AZ70" s="1"/>
     </row>
     <row r="71" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="16">
-        <v>0</v>
-      </c>
-      <c r="H71" s="15">
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="15">
+        <v>0</v>
+      </c>
+      <c r="H71" s="14">
         <v>30</v>
       </c>
-      <c r="I71" s="15" t="s">
+      <c r="I71" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15">
+      <c r="J71" s="14"/>
+      <c r="K71" s="14">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="L71" s="15">
+      <c r="L71" s="14">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="M71" s="15"/>
-      <c r="N71" s="15"/>
-      <c r="O71" s="15">
+      <c r="M71" s="14"/>
+      <c r="N71" s="14"/>
+      <c r="O71" s="14">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="P71" s="17"/>
+      <c r="P71" s="16"/>
       <c r="Q71" s="5">
         <f t="shared" ref="Q71:Q101" si="28">P71</f>
         <v>0</v>
@@ -9495,51 +9489,51 @@
         <v>0</v>
       </c>
       <c r="S71" s="5"/>
-      <c r="T71" s="17"/>
-      <c r="U71" s="15"/>
+      <c r="T71" s="16"/>
+      <c r="U71" s="14"/>
       <c r="V71" s="1" t="e">
         <f t="shared" ref="V71:V101" si="30">(F71+N71+Q71)/O71</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W71" s="15" t="e">
+      <c r="W71" s="14" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X71" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y71" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z71" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA71" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB71" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC71" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD71" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE71" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF71" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG71" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH71" s="15" t="s">
+      <c r="X71" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG71" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH71" s="14" t="s">
         <v>46</v>
       </c>
       <c r="AI71" s="1">
-        <f t="shared" ref="AI71:AJ101" si="31">ROUND(G71*R71,0)</f>
+        <f t="shared" ref="AI71:AI101" si="31">ROUND(G71*R71,0)</f>
         <v>0</v>
       </c>
       <c r="AJ71" s="1">
@@ -9564,41 +9558,41 @@
       <c r="AZ71" s="1"/>
     </row>
     <row r="72" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="16">
-        <v>0</v>
-      </c>
-      <c r="H72" s="15">
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="15">
+        <v>0</v>
+      </c>
+      <c r="H72" s="14">
         <v>55</v>
       </c>
-      <c r="I72" s="15" t="s">
+      <c r="I72" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15">
+      <c r="J72" s="14"/>
+      <c r="K72" s="14">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="L72" s="15">
+      <c r="L72" s="14">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15">
+      <c r="M72" s="14"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="14">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="P72" s="17"/>
+      <c r="P72" s="16"/>
       <c r="Q72" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -9608,47 +9602,47 @@
         <v>0</v>
       </c>
       <c r="S72" s="5"/>
-      <c r="T72" s="17"/>
-      <c r="U72" s="15"/>
+      <c r="T72" s="16"/>
+      <c r="U72" s="14"/>
       <c r="V72" s="1" t="e">
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W72" s="15" t="e">
+      <c r="W72" s="14" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X72" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y72" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z72" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA72" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB72" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC72" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD72" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE72" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF72" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG72" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH72" s="15" t="s">
+      <c r="X72" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG72" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH72" s="14" t="s">
         <v>46</v>
       </c>
       <c r="AI72" s="1">
@@ -9677,41 +9671,41 @@
       <c r="AZ72" s="1"/>
     </row>
     <row r="73" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="16">
-        <v>0</v>
-      </c>
-      <c r="H73" s="15">
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="15">
+        <v>0</v>
+      </c>
+      <c r="H73" s="14">
         <v>40</v>
       </c>
-      <c r="I73" s="15" t="s">
+      <c r="I73" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15">
+      <c r="J73" s="14"/>
+      <c r="K73" s="14">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="L73" s="15">
+      <c r="L73" s="14">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="M73" s="15"/>
-      <c r="N73" s="15"/>
-      <c r="O73" s="15">
+      <c r="M73" s="14"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="14">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="P73" s="17"/>
+      <c r="P73" s="16"/>
       <c r="Q73" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -9721,47 +9715,47 @@
         <v>0</v>
       </c>
       <c r="S73" s="5"/>
-      <c r="T73" s="17"/>
-      <c r="U73" s="15"/>
+      <c r="T73" s="16"/>
+      <c r="U73" s="14"/>
       <c r="V73" s="1" t="e">
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W73" s="15" t="e">
+      <c r="W73" s="14" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X73" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y73" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z73" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA73" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB73" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC73" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD73" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE73" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF73" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG73" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH73" s="15" t="s">
+      <c r="X73" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG73" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH73" s="14" t="s">
         <v>46</v>
       </c>
       <c r="AI73" s="1">
@@ -10136,7 +10130,7 @@
       <c r="AG76" s="1">
         <v>4.2923999999999998</v>
       </c>
-      <c r="AH76" s="21" t="s">
+      <c r="AH76" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AI76" s="1">
@@ -10461,7 +10455,7 @@
         <f t="shared" si="33"/>
         <v>50.428000000000026</v>
       </c>
-      <c r="Q79" s="25">
+      <c r="Q79" s="24">
         <f>P79+O79</f>
         <v>62.354800000000026</v>
       </c>
@@ -10469,7 +10463,7 @@
         <f t="shared" si="29"/>
         <v>62.354800000000026</v>
       </c>
-      <c r="S79" s="25"/>
+      <c r="S79" s="24"/>
       <c r="T79" s="5"/>
       <c r="U79" s="1"/>
       <c r="V79" s="1">
@@ -10598,10 +10592,10 @@
       <c r="S80" s="5">
         <v>400</v>
       </c>
-      <c r="T80" s="23">
+      <c r="T80" s="22">
         <v>600</v>
       </c>
-      <c r="U80" s="24" t="s">
+      <c r="U80" s="23" t="s">
         <v>148</v>
       </c>
       <c r="V80" s="1">
@@ -10732,10 +10726,10 @@
       <c r="S81" s="5">
         <v>600</v>
       </c>
-      <c r="T81" s="23">
+      <c r="T81" s="22">
         <v>800</v>
       </c>
-      <c r="U81" s="24" t="s">
+      <c r="U81" s="23" t="s">
         <v>148</v>
       </c>
       <c r="V81" s="1">
@@ -11151,7 +11145,7 @@
       <c r="AG84" s="1">
         <v>0.53780000000000006</v>
       </c>
-      <c r="AH84" s="21" t="s">
+      <c r="AH84" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AI84" s="1">
@@ -11306,41 +11300,41 @@
       <c r="AZ85" s="1"/>
     </row>
     <row r="86" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B86" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="16">
-        <v>0</v>
-      </c>
-      <c r="H86" s="15">
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="15">
+        <v>0</v>
+      </c>
+      <c r="H86" s="14">
         <v>60</v>
       </c>
-      <c r="I86" s="15" t="s">
+      <c r="I86" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J86" s="15"/>
-      <c r="K86" s="15">
+      <c r="J86" s="14"/>
+      <c r="K86" s="14">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="L86" s="15">
+      <c r="L86" s="14">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
-      <c r="O86" s="15">
+      <c r="M86" s="14"/>
+      <c r="N86" s="14"/>
+      <c r="O86" s="14">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="P86" s="17"/>
+      <c r="P86" s="16"/>
       <c r="Q86" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -11350,47 +11344,47 @@
         <v>0</v>
       </c>
       <c r="S86" s="5"/>
-      <c r="T86" s="17"/>
-      <c r="U86" s="15"/>
+      <c r="T86" s="16"/>
+      <c r="U86" s="14"/>
       <c r="V86" s="1" t="e">
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W86" s="15" t="e">
+      <c r="W86" s="14" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X86" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y86" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z86" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA86" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB86" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC86" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD86" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE86" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF86" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG86" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH86" s="15" t="s">
+      <c r="X86" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG86" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH86" s="14" t="s">
         <v>46</v>
       </c>
       <c r="AI86" s="1">
@@ -11785,7 +11779,7 @@
       <c r="AZ89" s="1"/>
     </row>
     <row r="90" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -12002,7 +11996,7 @@
       <c r="AG91" s="1">
         <v>5.2</v>
       </c>
-      <c r="AH91" s="22" t="s">
+      <c r="AH91" s="21" t="s">
         <v>117</v>
       </c>
       <c r="AI91" s="1">
@@ -12132,7 +12126,7 @@
       <c r="AG92" s="1">
         <v>108.1478</v>
       </c>
-      <c r="AH92" s="20" t="s">
+      <c r="AH92" s="19" t="s">
         <v>54</v>
       </c>
       <c r="AI92" s="1">
@@ -12988,7 +12982,7 @@
       <c r="AG99" s="1">
         <v>0</v>
       </c>
-      <c r="AH99" s="21" t="s">
+      <c r="AH99" s="20" t="s">
         <v>147</v>
       </c>
       <c r="AI99" s="1">
@@ -13017,43 +13011,43 @@
       <c r="AZ99" s="1"/>
     </row>
     <row r="100" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A100" s="11" t="s">
+      <c r="A100" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11">
+      <c r="C100" s="10"/>
+      <c r="D100" s="10">
         <v>72</v>
       </c>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="12">
-        <v>0</v>
-      </c>
-      <c r="H100" s="11" t="e">
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="11">
+        <v>0</v>
+      </c>
+      <c r="H100" s="10" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I100" s="11" t="s">
+      <c r="I100" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J100" s="11"/>
-      <c r="K100" s="11">
+      <c r="J100" s="10"/>
+      <c r="K100" s="10">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="L100" s="11">
+      <c r="L100" s="10">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="M100" s="11"/>
-      <c r="N100" s="11"/>
-      <c r="O100" s="11">
+      <c r="M100" s="10"/>
+      <c r="N100" s="10"/>
+      <c r="O100" s="10">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="P100" s="13"/>
+      <c r="P100" s="12"/>
       <c r="Q100" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -13063,47 +13057,47 @@
         <v>0</v>
       </c>
       <c r="S100" s="5"/>
-      <c r="T100" s="13"/>
-      <c r="U100" s="11"/>
+      <c r="T100" s="12"/>
+      <c r="U100" s="10"/>
       <c r="V100" s="1" t="e">
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W100" s="11" t="e">
+      <c r="W100" s="10" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X100" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z100" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA100" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB100" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC100" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD100" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE100" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF100" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG100" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH100" s="14" t="s">
+      <c r="X100" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF100" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG100" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH100" s="13" t="s">
         <v>146</v>
       </c>
       <c r="AI100" s="1">
@@ -13132,45 +13126,45 @@
       <c r="AZ100" s="1"/>
     </row>
     <row r="101" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A101" s="11" t="s">
+      <c r="A101" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11">
+      <c r="C101" s="10"/>
+      <c r="D101" s="10">
         <v>72</v>
       </c>
-      <c r="E101" s="11"/>
-      <c r="F101" s="11">
+      <c r="E101" s="10"/>
+      <c r="F101" s="10">
         <v>64</v>
       </c>
-      <c r="G101" s="12">
-        <v>0</v>
-      </c>
-      <c r="H101" s="11" t="e">
+      <c r="G101" s="11">
+        <v>0</v>
+      </c>
+      <c r="H101" s="10" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I101" s="11" t="s">
+      <c r="I101" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J101" s="11"/>
-      <c r="K101" s="11">
+      <c r="J101" s="10"/>
+      <c r="K101" s="10">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="L101" s="11">
+      <c r="L101" s="10">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="M101" s="11"/>
-      <c r="N101" s="11"/>
-      <c r="O101" s="11">
+      <c r="M101" s="10"/>
+      <c r="N101" s="10"/>
+      <c r="O101" s="10">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="P101" s="13"/>
+      <c r="P101" s="12"/>
       <c r="Q101" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -13180,47 +13174,47 @@
         <v>0</v>
       </c>
       <c r="S101" s="5"/>
-      <c r="T101" s="13"/>
-      <c r="U101" s="11"/>
+      <c r="T101" s="12"/>
+      <c r="U101" s="10"/>
       <c r="V101" s="1" t="e">
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W101" s="11" t="e">
+      <c r="W101" s="10" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X101" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y101" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z101" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA101" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB101" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC101" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD101" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE101" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF101" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG101" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH101" s="14" t="s">
+      <c r="X101" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF101" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG101" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH101" s="13" t="s">
         <v>146</v>
       </c>
       <c r="AI101" s="1">
